--- a/SocialMediaSafeSearch/Output/ImageDetails.xlsx
+++ b/SocialMediaSafeSearch/Output/ImageDetails.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
